--- a/biology/Médecine/Jean_Vague/Jean_Vague.xlsx
+++ b/biology/Médecine/Jean_Vague/Jean_Vague.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Vague, né le 25 novembre 1911 à Draguignan et mort le 20 avril 2003 dans le 8e arrondissement de Marseille[1], est un professeur de médecine français, spécialiste d'endocrinologie, qui a profondément influencé l’orientation des recherches sur l’obésité au XXe siècle. Il est membre de l'Académie nationale de médecine en 1980 et reçoit le prix Biguet de l'Académie française en 1994.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Vague, né le 25 novembre 1911 à Draguignan et mort le 20 avril 2003 dans le 8e arrondissement de Marseille, est un professeur de médecine français, spécialiste d'endocrinologie, qui a profondément influencé l’orientation des recherches sur l’obésité au XXe siècle. Il est membre de l'Académie nationale de médecine en 1980 et reçoit le prix Biguet de l'Académie française en 1994.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -563,7 +579,9 @@
           <t>Académies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L’œuvre scientifique de Jean Vague fut honorée par son élection à plusieurs académies étrangères :
 1980 : Académie nationale de médecine ( France)
@@ -598,7 +616,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Prix de thèse de la Faculté de médecine de Marseille en 1935
 Prix Dutens de l’Académie nationale de médecine en 1938 pour son étude sur les hépatonéphrites aiguës
@@ -636,7 +656,9 @@
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Une rue du 12e arrondissement de Marseille porte son nom.
 </t>
